--- a/Template/Шаблон - Подвопросы.xlsx
+++ b/Template/Шаблон - Подвопросы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user3\Desktop\Тираж 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TR\rx-template-upload-data-ui\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8616" windowHeight="6228"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,14 +432,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -451,12 +454,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>